--- a/data/income_statement/2digits/size/88_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/88_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>88-Social work activities without accommodation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>88-Social work activities without accommodation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>64075.98284</v>
+        <v>63085.76359</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>82724.56543999999</v>
+        <v>79649.09388999999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>85598.38128</v>
+        <v>89189.84526</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>127039.54763</v>
+        <v>117308.99396</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>140063.82156</v>
+        <v>133616.49974</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>177475.58783</v>
+        <v>168998.39004</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>216477.22382</v>
+        <v>207056.60915</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>319382.96391</v>
+        <v>309871.3765</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>414604.59558</v>
+        <v>397093.75255</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>448366.66016</v>
+        <v>440902.03694</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>510452.07237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>515367.36059</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>427820.252</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>58118.01244000001</v>
+        <v>57171.46388</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>74178.71579999999</v>
+        <v>71189.09620999999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>76252.25083</v>
+        <v>79849.22981</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>114413.04426</v>
+        <v>104793.02459</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>126271.48479</v>
+        <v>119824.16297</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>158429.85241</v>
+        <v>149952.65462</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>197356.88021</v>
+        <v>188743.72883</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>286438.16896</v>
+        <v>279434.21707</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>372023.7156699999</v>
+        <v>356823.7788</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>410556.051</v>
+        <v>404293.33274</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>457570.07143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>462398.89512</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>315618.048</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>11.83541</v>
@@ -1046,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>273.9725</v>
+        <v>72.5</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>7646.8102</v>
@@ -1060,23 +976,28 @@
       <c r="M7" s="48" t="n">
         <v>578.42949</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>61941.604</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>5946.13499</v>
+        <v>5902.4643</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>8539.866900000001</v>
+        <v>8454.014940000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>8938.938599999999</v>
+        <v>8933.4236</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>12528.84873</v>
+        <v>12418.31473</v>
       </c>
       <c r="G8" s="48" t="n">
         <v>13770.32103</v>
@@ -1085,130 +1006,145 @@
         <v>19045.73542</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>18846.37111</v>
+        <v>18240.38032</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>25297.98475</v>
+        <v>22790.34923</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>31241.25323</v>
+        <v>28930.34707</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>37202.07868999999</v>
+        <v>36000.17372999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>52303.57145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>52390.03597999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>50260.6</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>208.2122</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>332.6122800000001</v>
+        <v>61.89844</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>158.25166</v>
+        <v>158.39366</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>578.7726</v>
+        <v>85.32863</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>197.19355</v>
+        <v>56.04387999999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>36.33881</v>
+        <v>19.33376</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>209.70709</v>
+        <v>87.30577000000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1165.664</v>
+        <v>1053.2131</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1630.77701</v>
+        <v>1417.27527</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1384.91708</v>
+        <v>1373.7061</v>
       </c>
       <c r="M9" s="47" t="n">
         <v>1710.22555</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>1047.731</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>208.2122</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>306.81073</v>
+        <v>59.44298999999999</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>16.1158</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>177.46398</v>
+        <v>33.0431</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>146.21089</v>
+        <v>55.85628</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>33.0456</v>
+        <v>16.04055</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>200.54492</v>
+        <v>87.30577000000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>370.37082</v>
+        <v>305.1679099999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1079.68463</v>
+        <v>866.10927</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1225.13163</v>
+        <v>1213.92065</v>
       </c>
       <c r="M10" s="48" t="n">
         <v>1226.34938</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>961.049</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>25.80155</v>
+        <v>2.45545</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>142.13586</v>
+        <v>142.27786</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>401.30862</v>
+        <v>52.28553</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>50.98266</v>
+        <v>0.1876</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>0.06636</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>9.16217</v>
+        <v>0</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>795.29318</v>
+        <v>748.0451899999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>473.22875</v>
+        <v>473.30237</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>118.2261</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>380.87947</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>86.682</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,89 +1196,104 @@
       <c r="M12" s="48" t="n">
         <v>102.9967</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>63867.77064</v>
+        <v>62877.55139</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>82391.95315999999</v>
+        <v>79587.19544999998</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>85440.12962000001</v>
+        <v>89031.4516</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>126460.77503</v>
+        <v>117223.66533</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>139866.62801</v>
+        <v>133560.45586</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>177439.24902</v>
+        <v>168979.05628</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>216267.51673</v>
+        <v>206969.30338</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>318217.2999099999</v>
+        <v>308818.1634</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>412973.81857</v>
+        <v>395676.4772800001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>446981.74308</v>
+        <v>439528.33084</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>508741.84682</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>513657.13504</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>426772.521</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>46489.40016</v>
+        <v>45766.02643999999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>65420.54123999999</v>
+        <v>61164.37499</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>64941.97437</v>
+        <v>66930.55213</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>93606.60053999998</v>
+        <v>88091.98162000001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>102534.52972</v>
+        <v>98269.32908000001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>132954.40229</v>
+        <v>127347.19292</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>153375.3582</v>
+        <v>150441.97109</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>222311.70869</v>
+        <v>217538.32426</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>319438.3873</v>
+        <v>293910.52756</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>347076.87455</v>
+        <v>341576.76563</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>406343.28192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>407321.70685</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>259367.531</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0</v>
@@ -1349,7 +1305,7 @@
         <v>2188.00874</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>4323.29837</v>
+        <v>4284.890719999999</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>3038.91977</v>
@@ -1358,7 +1314,7 @@
         <v>2252.91441</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2979.42369</v>
+        <v>2446.47634</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>1012.88572</v>
@@ -1372,89 +1328,104 @@
       <c r="M15" s="48" t="n">
         <v>19876.89841</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>13096.21</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>5390.96988</v>
+        <v>5376.39806</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>5755.729859999999</v>
+        <v>5749.96548</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>2792.99914</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>5082.94974</v>
+        <v>4071.40341</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>3578.16277</v>
+        <v>3417.61798</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>10557.72289</v>
+        <v>8418.13917</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2917.59871</v>
+        <v>2230.54971</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>4635.458570000001</v>
+        <v>4743.49856</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>22574.53059</v>
+        <v>14246.39173</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>7208.021920000001</v>
+        <v>3755.98766</v>
       </c>
       <c r="M16" s="48" t="n">
         <v>21450.61543</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>722.201</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>41058.99525</v>
+        <v>40350.19334999999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>58243.37151999999</v>
+        <v>53992.96965</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>58904.08796</v>
+        <v>61794.02071</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>83213.98783000001</v>
+        <v>79706.31106000001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>95336.33004</v>
+        <v>91744.20827000002</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>119636.87307</v>
+        <v>116550.28187</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>146649.83733</v>
+        <v>145754.80806</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>213445.55019</v>
+        <v>211237.67178</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>287655.97662</v>
+        <v>271446.33379</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>324981.6479</v>
+        <v>322933.57324</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>364586.95937</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>365565.3843</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>244777.331</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>39.43503</v>
@@ -1463,25 +1434,25 @@
         <v>37.3</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1056.87853</v>
+        <v>155.52354</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>986.3646000000001</v>
+        <v>29.37643</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>581.1171400000001</v>
+        <v>68.58306</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>506.89192</v>
+        <v>125.85747</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>828.49847</v>
+        <v>10.13698</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>3217.81421</v>
+        <v>544.2682</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1469.06995</v>
+        <v>478.9919</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>1237.33955</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>428.80871</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>771.789</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>17378.37048</v>
+        <v>17111.52495</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>16971.41192</v>
+        <v>18422.82046</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>20498.15525</v>
+        <v>22100.89947</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>32854.17449</v>
+        <v>29131.68371</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>37332.09829</v>
+        <v>35291.12678</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>44484.84673</v>
+        <v>41631.86336</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>62892.15853</v>
+        <v>56527.33229000001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>95905.59122</v>
+        <v>91279.83914</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>93535.43127</v>
+        <v>101765.94972</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>99904.86853000001</v>
+        <v>97951.56521000002</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>102398.5649</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>106335.42819</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>167404.99</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>13311.35535</v>
+        <v>12697.78721</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>18228.97199</v>
+        <v>13524.92615</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>15380.26415</v>
+        <v>15235.70067</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>27015.70517</v>
+        <v>25244.68463</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>33097.27348</v>
+        <v>30089.89427</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>37858.83217</v>
+        <v>36193.23378</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>50622.57442</v>
+        <v>47704.25976</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>69907.46520000001</v>
+        <v>68266.71803999999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>80884.58119</v>
+        <v>80950.15078</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>88472.98583000001</v>
+        <v>87996.27486999999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>102683.82499</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>106542.4733</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>163863.831</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,170 +1592,195 @@
       <c r="M21" s="48" t="n">
         <v>0.048</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>135.89023</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>530.39985</v>
+        <v>105.51404</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>205.03169</v>
+        <v>216.92191</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>604.14206</v>
+        <v>531.5014200000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>672.42067</v>
+        <v>517.9138399999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1587.27832</v>
+        <v>1360.79289</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1492.88542</v>
+        <v>1079.38667</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1109.44972</v>
+        <v>1023.60181</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>1148.48736</v>
+        <v>1018.15652</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>3542.8351</v>
+        <v>3439.87041</v>
       </c>
       <c r="M22" s="48" t="n">
         <v>3960.3153</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="48" t="n">
+        <v>87919.23</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>13175.46512</v>
+        <v>12561.89698</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>17687.62996</v>
+        <v>13408.46993</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>15111.46333</v>
+        <v>14955.00963</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>26355.15866</v>
+        <v>24656.77876</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>32349.47781</v>
+        <v>29496.60543</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>36271.55385</v>
+        <v>34832.44089</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>49129.689</v>
+        <v>46624.87309</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>68795.79648</v>
+        <v>67240.89723</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>79735.69383</v>
+        <v>79931.59426000001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>84930.15073000001</v>
+        <v>84556.40445999999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>98723.46169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>102582.11</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>75944.601</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>4067.01513</v>
+        <v>4413.73774</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-1257.56007</v>
+        <v>4897.89431</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>5117.891100000001</v>
+        <v>6865.1988</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>5838.46932</v>
+        <v>3886.99908</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>4234.824809999999</v>
+        <v>5201.23251</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>6626.014560000001</v>
+        <v>5438.62958</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>12269.58411</v>
+        <v>8823.072529999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>25998.12602</v>
+        <v>23013.1211</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>12650.85008</v>
+        <v>20815.79894</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>11431.8827</v>
+        <v>9955.29034</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-285.2600899999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-207.0451100000003</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3541.159</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>11053.716</v>
+        <v>1080.48773</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1850.94353</v>
+        <v>864.3924000000001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>-1905.30608</v>
+        <v>-2518.25962</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1416.30391</v>
+        <v>392.03285</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2618.97096</v>
+        <v>398.05663</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>982.59229</v>
+        <v>877.76404</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2367.86882</v>
+        <v>1667.72545</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4611.36267</v>
+        <v>4004.55886</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>5756.4588</v>
+        <v>4790.64631</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>5416.96148</v>
+        <v>5395.979780000001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>8318.223679999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>8497.086120000002</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3080.65</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>8666</v>
+        <v>0</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>0</v>
@@ -1781,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>161.51298</v>
+        <v>0</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>587.0663499999999</v>
+        <v>84.11741000000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>404.66353</v>
+        <v>71.94789999999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>428.08746</v>
+        <v>183.94034</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>317.94295</v>
+        <v>60.71827</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>307.26616</v>
+        <v>50.50012</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>21.47527</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>854.34533</v>
+        <v>708.69002</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>594.6910899999999</v>
+        <v>483.45456</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1436.25568</v>
+        <v>1250.87359</v>
       </c>
       <c r="L28" s="48" t="n">
         <v>1380.54798</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2248.26328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2427.12572</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>489.147</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1.04714</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0.385</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>191.76</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1931,7 +1962,7 @@
         <v>16.227</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>0</v>
+        <v>54.61</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>0</v>
@@ -1949,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>10.0512</v>
+        <v>80.44834</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>470.14711</v>
@@ -1957,17 +1988,22 @@
       <c r="M30" s="48" t="n">
         <v>0.43588</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>37.63368</v>
+        <v>32.68804</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>3.44132</v>
+        <v>3.24485</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>84.33150000000001</v>
@@ -1996,38 +2032,43 @@
       <c r="M31" s="48" t="n">
         <v>20.17405</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>119.729</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>641.37881</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>545.52752</v>
+        <v>428.89835</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>293.03388</v>
+        <v>287.26495</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>351.26655</v>
+        <v>99.10388999999999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1778.23133</v>
+        <v>5.440060000000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>103.35638</v>
+        <v>1.37148</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>404.67275</v>
+        <v>4.56956</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2241.3884</v>
+        <v>1951.46382</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1940.47336</v>
+        <v>1246.3264</v>
       </c>
       <c r="L32" s="48" t="n">
         <v>1431.51569</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>953.49677</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>638.293</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>59.33</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,77 +2164,87 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1120.59002</v>
+        <v>321.25633</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>881.08416</v>
+        <v>344.0743</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>-2710.75892</v>
+        <v>-3128.40641</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>672.5458000000001</v>
+        <v>157.66208</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>289.23165</v>
+        <v>259.38761</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>607.1523000000001</v>
+        <v>604.3089500000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>923.30924</v>
+        <v>823.92437</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1744.30024</v>
+        <v>1538.65754</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2341.41996</v>
+        <v>2184.73938</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1987.07887</v>
+        <v>1966.09717</v>
       </c>
       <c r="M35" s="48" t="n">
         <v>5095.4687</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="48" t="n">
+        <v>1582.391</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>912.9101400000001</v>
+        <v>900.11364</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>463.16942</v>
+        <v>449.77728</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>393.39329</v>
+        <v>358.63185</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>377.15415</v>
+        <v>230.30578</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>418.73826</v>
+        <v>215.57</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>403.7091100000001</v>
+        <v>255.61182</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1531.86822</v>
+        <v>443.24009</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1588.47845</v>
+        <v>1144.14433</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1342.2554</v>
+        <v>1629.03306</v>
       </c>
       <c r="L36" s="47" t="n">
         <v>931.2630799999999</v>
@@ -2191,11 +2252,16 @@
       <c r="M36" s="47" t="n">
         <v>897.49091</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="47" t="n">
+        <v>298.131</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2.22643</v>
@@ -2207,7 +2273,7 @@
         <v>5.11208</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>129.06327</v>
+        <v>31.10401</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>48.01774</v>
@@ -2216,13 +2282,13 @@
         <v>39.36574</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>205.67231</v>
+        <v>14.20338</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>84.86944</v>
+        <v>7.63869</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>128.54353</v>
+        <v>21.45738</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>112.3839</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>277.95577</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>39.706</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>61.048</v>
@@ -2261,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>35.67089</v>
+        <v>712.45552</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>23.16226</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,38 +2384,43 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>602.96315</v>
+        <v>590.16665</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>376.95097</v>
+        <v>369.4754</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>221.98597</v>
+        <v>187.23121</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>145.00818</v>
+        <v>96.11907000000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>192.35552</v>
+        <v>10.50326</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>147.99908</v>
+        <v>0.1016</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>650.12729</v>
+        <v>1.64378</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1025.1705</v>
+        <v>689.4592</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>681.26333</v>
+        <v>419.11421</v>
       </c>
       <c r="L40" s="48" t="n">
         <v>729.79164</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>493.57888</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>208.089</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,38 +2516,43 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>246.67256</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>33.54773</v>
+        <v>27.63116</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>85.22767999999999</v>
+        <v>85.221</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>51.83172</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>178.365</v>
+        <v>157.049</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>216.34429</v>
+        <v>216.14448</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>671.06862</v>
+        <v>422.39293</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>478.43851</v>
+        <v>447.04644</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>496.7776500000001</v>
+        <v>476.00595</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>65.92528</v>
@@ -2464,89 +2560,104 @@
       <c r="M43" s="48" t="n">
         <v>125.95626</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>50.119</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1160.26556</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1134.43406</v>
+        <v>923.1182299999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1263.43943</v>
+        <v>1209.51477</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1404.4959</v>
+        <v>1218.09282</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2031.78152</v>
+        <v>1362.03037</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3752.6827</v>
+        <v>2707.49115</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>5122.208799999999</v>
+        <v>3228.84703</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>10166.63461</v>
+        <v>4305.89942</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>9908.18957</v>
+        <v>6735.31088</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>14597.99804</v>
+        <v>11393.88447</v>
       </c>
       <c r="M44" s="47" t="n">
         <v>16283.37073</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="47" t="n">
+        <v>8984.710999999999</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>978.0834699999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>962.7704399999999</v>
+        <v>751.45461</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1009.93382</v>
+        <v>956.0091600000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1238.62101</v>
+        <v>1052.21793</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1895.44481</v>
+        <v>1225.69366</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3529.46698</v>
+        <v>2484.27543</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4942.59611</v>
+        <v>3049.23434</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>9940.569579999999</v>
+        <v>4079.83439</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>9496.524719999999</v>
+        <v>6323.64603</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>13822.51191</v>
+        <v>10618.39834</v>
       </c>
       <c r="M45" s="48" t="n">
         <v>15131.94776</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="48" t="n">
+        <v>8427.999</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>182.18209</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>1151.42297</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>556.712</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>13047.55543</v>
+        <v>3433.84627</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-1004.22002</v>
+        <v>4389.3912</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1555.7523</v>
+        <v>2778.79256</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>5473.12318</v>
+        <v>2830.63333</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>4403.27599</v>
+        <v>4021.68877</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3452.21504</v>
+        <v>3353.29065</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>7983.37591</v>
+        <v>6818.71086</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>18854.37563</v>
+        <v>21567.63621</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>7156.86391</v>
+        <v>17242.10131</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1319.58306</v>
+        <v>3026.12257</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-9147.898050000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-8890.82063</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-2661.033</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>673.39564</v>
+        <v>447.9287200000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>227.37228</v>
+        <v>140.11516</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>320.43201</v>
+        <v>279.54216</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>667.9775400000001</v>
+        <v>636.21279</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>14593.99129</v>
+        <v>713.15448</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2022.60558</v>
+        <v>1201.06745</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>2471.05554</v>
+        <v>2377.74453</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2939.98406</v>
+        <v>2668.39652</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>5445.8006</v>
+        <v>5108.85283</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>6103.85815</v>
+        <v>6102.659350000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>6194.96367</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>6353.572740000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>6190.867</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2.26652</v>
@@ -2690,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>52.01244000000001</v>
+        <v>82.93092999999999</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>246.22498</v>
@@ -2698,95 +2824,110 @@
       <c r="M49" s="48" t="n">
         <v>133.62585</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>55.345</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>671.1291199999999</v>
+        <v>445.6622</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>227.37228</v>
+        <v>140.11516</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>320.43201</v>
+        <v>279.54216</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>667.9775400000001</v>
+        <v>636.21279</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>14555.31249</v>
+        <v>674.47568</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>2022.60558</v>
+        <v>1201.06745</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>2471.05554</v>
+        <v>2377.74453</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2939.98406</v>
+        <v>2668.39652</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>5393.788159999999</v>
+        <v>5025.9219</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>5857.63317</v>
+        <v>5856.43437</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>6061.337820000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>6219.946889999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>6135.522</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>377.55607</v>
+        <v>269.36907</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>462.47395</v>
+        <v>258.93624</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>8644.6767</v>
+        <v>8689.70976</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>646.05547</v>
+        <v>480.45095</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>3963.98001</v>
+        <v>562.1749599999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>4670.84039</v>
+        <v>4531.930560000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1104.74833</v>
+        <v>945.6864900000002</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>10909.96167</v>
+        <v>10412.46835</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>3421.99015</v>
+        <v>2855.93039</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>10598.27722</v>
+        <v>10415.61768</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2979.78753</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2979.82663</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>7678.497</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>106.06289</v>
+        <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>99.8155</v>
+        <v>0</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>2898.619</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>19.35432</v>
@@ -2828,7 +2974,7 @@
         <v>3.69585</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>8.856620000000001</v>
+        <v>3.04785</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>2.57364</v>
@@ -2846,7 +2992,7 @@
         <v>7.17791</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>135.93331</v>
+        <v>235.17669</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>254.33016</v>
@@ -2854,164 +3000,187 @@
       <c r="M53" s="48" t="n">
         <v>152.59878</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>441.388</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>252.13886</v>
+        <v>250.01475</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>358.9626</v>
+        <v>255.24039</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>8635.82008</v>
+        <v>8686.661910000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>643.4818299999999</v>
+        <v>477.87731</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>3957.83732</v>
+        <v>556.03227</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>4669.18364</v>
+        <v>4530.273810000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1087.55968</v>
+        <v>928.4978400000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>10902.78376</v>
+        <v>10405.29044</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>3286.05684</v>
+        <v>2620.7537</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>10343.94706</v>
+        <v>10161.28752</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2827.18875</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2827.22785</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>4338.49</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>13343.395</v>
+        <v>3612.40592</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-1239.32169</v>
+        <v>4270.57012</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-6768.49239</v>
+        <v>-5631.37504</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>5495.04525</v>
+        <v>2986.39517</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>15033.28727</v>
+        <v>4172.66829</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>803.9802300000002</v>
+        <v>22.42753999999992</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>9349.68312</v>
+        <v>8250.768899999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>10884.39802</v>
+        <v>13823.56438</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>9180.674359999999</v>
+        <v>19495.02375</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-3174.83601</v>
+        <v>-1286.83576</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-5932.72191</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-5517.074520000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-4148.663</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>959.66231</v>
+        <v>798.8399000000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>671.6256200000001</v>
+        <v>593.0798100000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>665.29927</v>
+        <v>600.8964</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1268.27614</v>
+        <v>853.6563200000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1651.60881</v>
+        <v>903.61081</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1522.09751</v>
+        <v>1120.54254</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>2325.05922</v>
+        <v>1992.26444</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3654.48249</v>
+        <v>3242.80505</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>3837.09873</v>
+        <v>3789.67151</v>
       </c>
       <c r="L56" s="47" t="n">
         <v>3006.46723</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2918.13883</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>3009.59019</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>3394.918</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>12383.73269</v>
+        <v>2813.56602</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-1910.94731</v>
+        <v>3677.49031</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-7433.79166</v>
+        <v>-6232.27144</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>4226.769109999999</v>
+        <v>2132.73885</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>13381.67846</v>
+        <v>3269.05748</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-718.1172799999998</v>
+        <v>-1098.115</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>7024.6239</v>
+        <v>6258.50446</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>7229.91553</v>
+        <v>10580.75933</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>5343.57563</v>
+        <v>15705.35224</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-6181.303239999999</v>
+        <v>-4293.302989999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-8850.860739999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-8526.664710000001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-7543.581</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M59" s="35" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="35" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>